--- a/medicine/Psychotrope/Liste_des_Vins_délimités_de_qualité_supérieure/Liste_des_Vins_délimités_de_qualité_supérieure.xlsx
+++ b/medicine/Psychotrope/Liste_des_Vins_délimités_de_qualité_supérieure/Liste_des_Vins_délimités_de_qualité_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_Vins_d%C3%A9limit%C3%A9s_de_qualit%C3%A9_sup%C3%A9rieure</t>
+          <t>Liste_des_Vins_délimités_de_qualité_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste est constituée de produits français identifiés sous le terme de « vin » et jouissant du label d'appellation d'origine vins délimités de qualité supérieure (AOVDQS), souvent plus simplement appelé « vin délimité de qualité supérieure » (VDQS).
 Le vin est avant tout une boisson obtenue uniquement par fermentation de moût de raisin et non par distillation ou par le quelconque ajout d'un ingrédient supplémentaire, c'est pourquoi cette liste n'inclut pas de boissons telles que les liqueurs, les eaux-de-vie (cognac, armagnac, marc de Bourgogne, etc.) ou les mistelles (pineau des Charentes, pommeau de Normandie, etc.).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_Vins_d%C3%A9limit%C3%A9s_de_qualit%C3%A9_sup%C3%A9rieure</t>
+          <t>Liste_des_Vins_délimités_de_qualité_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Classement par AO-VDQS / région</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parlement a ratifié le 28/11/2007 l'ordonnance 2006-1547 du 7/12/2006, sur le régime des labels de qualité et des appellations d'origine en organisant,  au 31 décembre 2011, la suppression de la catégorie VDQS (vin délimité de qualité supérieure).C'est dans le cadre beaucoup plus large de la transformation de l'INAO (Institut national des appellations d'origine) qui devient l'Institut national de l'origine et de la qualité (INOQ) de la transformation des syndicats AOC en ODG (organismes de défense et de gestion) que cette suppression intervient. Les VDQS concernés doivent choisir entre la « dénomination » vin de pays (qui n'est pas une appellation au sens strict administratif français du mot) ou l'AOC. Mais cette possibilité pourrait aussi évoluer puisqu'une nouvelle segmentation des vins français pourrait voir le jour, en application de la nouvelle OCM vin (Organisation commune de marché) adoptée fin 2007 à Bruxelles.
 Passage à l'AOC déjà publié officiellement
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_Vins_d%C3%A9limit%C3%A9s_de_qualit%C3%A9_sup%C3%A9rieure</t>
+          <t>Liste_des_Vins_délimités_de_qualité_supérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_Vins_d%C3%A9limit%C3%A9s_de_qualit%C3%A9_sup%C3%A9rieure</t>
+          <t>Liste_des_Vins_délimités_de_qualité_supérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>À savoir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les régions viti-vinicoles de cette liste sont celles du Portail de la vigne et du vin, section de Wikipédia sur la vigne et le vin. Elles sont aussi appelées « vignobles » (vignoble de la vallée de la Loire, vignoble du Sud-Ouest, etc.) mais le terme vignoble a ici un sens général et ne signifierait aucunement une sorte d'organigramme des vignobles. Par exemple le vignoble de la vallée de la Loire est constitué de vignobles plus petits, comme le vignoble d'Anjou ou le vignoble de Touraine. À leur tour ces derniers sont constitués d'autres aires encore plus petites qui sont les territoires correspondants aux AOC. Ces mêmes territoires peuvent être appelées à leur tour des « vignobles » sans que cela ait un sens officiel.
 Le VDQS coteaux-d'ancenis doit impérativement être suivi du nom de l'un des cépages : pineau de la Loire, chenin blanc, malvoisie, pinot beurot, gamay ou cabernet.
